--- a/src/Input_Files/kingdom_names/hre_kingdoms.xlsx
+++ b/src/Input_Files/kingdom_names/hre_kingdoms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\HRE_master_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D233FF-04CD-4EE4-B72B-D42FC15B7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A616D-553B-4C30-BFCC-06361C11DBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kingdoms" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>RGB</t>
   </si>
@@ -37,9 +37,6 @@
     <t>government</t>
   </si>
   <si>
-    <t>(200, 185, 19)</t>
-  </si>
-  <si>
     <t>arles</t>
   </si>
   <si>
@@ -55,21 +52,12 @@
     <t>lotharingia</t>
   </si>
   <si>
-    <t>(166, 235, 192)</t>
-  </si>
-  <si>
-    <t>(192, 98, 13)</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
     <t>netherlands</t>
   </si>
   <si>
-    <t>(62, 100, 65)</t>
-  </si>
-  <si>
     <t>Hannover</t>
   </si>
   <si>
@@ -82,48 +70,30 @@
     <t>Westphalen</t>
   </si>
   <si>
-    <t>(55, 167, 56)</t>
-  </si>
-  <si>
-    <t>(94, 146, 56)</t>
-  </si>
-  <si>
     <t>Sachsen</t>
   </si>
   <si>
     <t>sachsen</t>
   </si>
   <si>
-    <t>(104, 53, 44)</t>
-  </si>
-  <si>
     <t>cechy</t>
   </si>
   <si>
     <t>Čechy</t>
   </si>
   <si>
-    <t>(60, 101, 32)</t>
-  </si>
-  <si>
     <t>Bayern</t>
   </si>
   <si>
     <t>bayern</t>
   </si>
   <si>
-    <t>(125, 169, 59)</t>
-  </si>
-  <si>
     <t>Württemberg</t>
   </si>
   <si>
     <t>wurttemberg</t>
   </si>
   <si>
-    <t>(66, 191, 26)</t>
-  </si>
-  <si>
     <t>Österreich</t>
   </si>
   <si>
@@ -136,10 +106,73 @@
     <t>pommern</t>
   </si>
   <si>
-    <t>(255, 0, 0)</t>
-  </si>
-  <si>
     <t>habsburg_1016</t>
+  </si>
+  <si>
+    <t>(153, 112, 171)</t>
+  </si>
+  <si>
+    <t>(236, 232, 123)</t>
+  </si>
+  <si>
+    <t>(220, 138, 57)</t>
+  </si>
+  <si>
+    <t>(164, 217, 127)</t>
+  </si>
+  <si>
+    <t>(155, 147, 180)</t>
+  </si>
+  <si>
+    <t>(17, 116, 193)</t>
+  </si>
+  <si>
+    <t>(111, 162, 128)</t>
+  </si>
+  <si>
+    <t>(220, 220, 220)</t>
+  </si>
+  <si>
+    <t>(61, 136, 66)</t>
+  </si>
+  <si>
+    <t>(55, 116, 167)</t>
+  </si>
+  <si>
+    <t>(176, 130, 32)</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>metz</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>s_gravenhaege</t>
+  </si>
+  <si>
+    <t>hanover</t>
+  </si>
+  <si>
+    <t>dresden</t>
+  </si>
+  <si>
+    <t>bohemia</t>
+  </si>
+  <si>
+    <t>austria</t>
+  </si>
+  <si>
+    <t>arnsberg</t>
+  </si>
+  <si>
+    <t>mecklenburg</t>
+  </si>
+  <si>
+    <t>single_heir_dynasty_house;male_only_law</t>
   </si>
 </sst>
 </file>
@@ -554,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,11 +598,13 @@
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,167 +615,209 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
